--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.3097613333333</v>
+        <v>0.3197726666666666</v>
       </c>
       <c r="H2">
-        <v>324.929284</v>
+        <v>0.959318</v>
       </c>
       <c r="I2">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="J2">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>12677.0686838943</v>
+        <v>24.65112244836222</v>
       </c>
       <c r="R2">
-        <v>114093.6181550487</v>
+        <v>221.86010203526</v>
       </c>
       <c r="S2">
-        <v>0.316768712363761</v>
+        <v>0.0258311973215403</v>
       </c>
       <c r="T2">
-        <v>0.316768712363761</v>
+        <v>0.0258311973215403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.3097613333333</v>
+        <v>0.3197726666666666</v>
       </c>
       <c r="H3">
-        <v>324.929284</v>
+        <v>0.959318</v>
       </c>
       <c r="I3">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="J3">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>11002.10959980442</v>
+        <v>32.48251941817956</v>
       </c>
       <c r="R3">
-        <v>99018.98639823981</v>
+        <v>292.342674763616</v>
       </c>
       <c r="S3">
-        <v>0.2749156116541934</v>
+        <v>0.0340374914103559</v>
       </c>
       <c r="T3">
-        <v>0.2749156116541934</v>
+        <v>0.03403749141035589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.3097613333333</v>
+        <v>0.3197726666666666</v>
       </c>
       <c r="H4">
-        <v>324.929284</v>
+        <v>0.959318</v>
       </c>
       <c r="I4">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="J4">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>15382.88765563295</v>
+        <v>45.41628516322489</v>
       </c>
       <c r="R4">
-        <v>138445.9889006965</v>
+        <v>408.746566469024</v>
       </c>
       <c r="S4">
-        <v>0.3843804618099104</v>
+        <v>0.04759040997504549</v>
       </c>
       <c r="T4">
-        <v>0.3843804618099104</v>
+        <v>0.04759040997504548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.480752000000001</v>
       </c>
       <c r="I5">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057992</v>
       </c>
       <c r="J5">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057991</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>252.8455952504587</v>
+        <v>166.5326941738489</v>
       </c>
       <c r="R5">
-        <v>2275.610357254128</v>
+        <v>1498.79424756464</v>
       </c>
       <c r="S5">
-        <v>0.006317988458648342</v>
+        <v>0.1745047874677292</v>
       </c>
       <c r="T5">
-        <v>0.006317988458648342</v>
+        <v>0.1745047874677291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.480752000000001</v>
       </c>
       <c r="I6">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057992</v>
       </c>
       <c r="J6">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>219.4383433693583</v>
@@ -818,10 +818,10 @@
         <v>1974.945090324224</v>
       </c>
       <c r="S6">
-        <v>0.0054832235436777</v>
+        <v>0.2299430851215623</v>
       </c>
       <c r="T6">
-        <v>0.005483223543677699</v>
+        <v>0.2299430851215622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.480752000000001</v>
       </c>
       <c r="I7">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057992</v>
       </c>
       <c r="J7">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057991</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>306.8134663418596</v>
@@ -880,10 +880,10 @@
         <v>2761.321197076737</v>
       </c>
       <c r="S7">
-        <v>0.007666512589968656</v>
+        <v>0.3215009461165078</v>
       </c>
       <c r="T7">
-        <v>0.007666512589968656</v>
+        <v>0.3215009461165078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.487215</v>
       </c>
       <c r="I8">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872592</v>
       </c>
       <c r="J8">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872591</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>58.02347658734833</v>
+        <v>38.21623181472778</v>
       </c>
       <c r="R8">
-        <v>522.211289286135</v>
+        <v>343.94608633255</v>
       </c>
       <c r="S8">
-        <v>0.001449863720372064</v>
+        <v>0.04004568258341298</v>
       </c>
       <c r="T8">
-        <v>0.001449863720372064</v>
+        <v>0.04004568258341296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.487215</v>
       </c>
       <c r="I9">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872592</v>
       </c>
       <c r="J9">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872591</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>50.35711840756445</v>
@@ -1004,10 +1004,10 @@
         <v>453.21406566808</v>
       </c>
       <c r="S9">
-        <v>0.00125830031800486</v>
+        <v>0.05276776604614159</v>
       </c>
       <c r="T9">
-        <v>0.001258300318004859</v>
+        <v>0.05276776604614156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.487215</v>
       </c>
       <c r="I10">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872592</v>
       </c>
       <c r="J10">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872591</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>70.40812383279112</v>
@@ -1066,10 +1066,10 @@
         <v>633.67311449512</v>
       </c>
       <c r="S10">
-        <v>0.001759325541463434</v>
+        <v>0.07377863395770463</v>
       </c>
       <c r="T10">
-        <v>0.001759325541463434</v>
+        <v>0.07377863395770461</v>
       </c>
     </row>
   </sheetData>
